--- a/airica/data/LD_storage_test/AIRICA_storage_test_mod_14032022.xlsx
+++ b/airica/data/LD_storage_test/AIRICA_storage_test_mod_14032022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\GitHub\lab-work\airica\data\LD_storage_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F572D8A-F4B3-472B-9147-BF6D76FAD793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4C8C7E-25AB-44C9-872F-7DAC322451A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7741F939-3579-4835-AC9B-056E5DC56150}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="567">
   <si>
     <t>analysis_date</t>
   </si>
@@ -1532,12 +1532,6 @@
     <t>0.124</t>
   </si>
   <si>
-    <t>CRM-189-0408-1200-10</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)CRM-189-0408-1200-10.dat</t>
-  </si>
-  <si>
     <t>2077.2</t>
   </si>
   <si>
@@ -1631,24 +1625,12 @@
     <t>2238.5</t>
   </si>
   <si>
-    <t>CRM-189-0408-1200-7</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)CRM-189-0408-1200-7.dat</t>
-  </si>
-  <si>
     <t>2068.8</t>
   </si>
   <si>
     <t>0.516</t>
   </si>
   <si>
-    <t>CRM-189-0408-1200-9</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)CRM-189-0408-1200-9.dat</t>
-  </si>
-  <si>
     <t>2074.3</t>
   </si>
   <si>
@@ -1715,28 +1697,46 @@
     <t>0.148</t>
   </si>
   <si>
-    <t>CRM-189-0408-1200-3</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)CRM-189-0408-1200-3.dat</t>
-  </si>
-  <si>
     <t>2069.5</t>
   </si>
   <si>
     <t>0.175</t>
   </si>
   <si>
-    <t>CRM-189-0408-1200-8</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)CRM-189-0408-1200-8.dat</t>
-  </si>
-  <si>
     <t>2067.4</t>
   </si>
   <si>
     <t>0.018</t>
+  </si>
+  <si>
+    <t>16/02/2022</t>
+  </si>
+  <si>
+    <t>17/02/2022</t>
+  </si>
+  <si>
+    <t>CRM-189-0408-7</t>
+  </si>
+  <si>
+    <t>CRM-189-0408-3</t>
+  </si>
+  <si>
+    <t>CRM-189-0408-8</t>
+  </si>
+  <si>
+    <t>CRM-189-0408-1200#10</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)CRM-189-0408-1200#10.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)CRM-189-0408-7.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)CRM-189-0408-3.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)CRM-189-0408-8.dat</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1840,13 +1840,16 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2165,9 +2168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD63930-A9D0-4326-B92B-8C89864D4982}">
   <dimension ref="A1:Y203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U197" sqref="U197:U201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14236,8 +14239,11 @@
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A161" s="13">
-        <v>44608</v>
+      <c r="A161" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B161" s="1">
+        <v>8</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>26</v>
@@ -14307,8 +14313,11 @@
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A162" s="13">
-        <v>44608</v>
+      <c r="A162" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B162" s="1">
+        <v>8</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>26</v>
@@ -14378,8 +14387,11 @@
       </c>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A163" s="13">
-        <v>44608</v>
+      <c r="A163" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B163" s="1">
+        <v>8</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>26</v>
@@ -14449,8 +14461,11 @@
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A164" s="13">
-        <v>44608</v>
+      <c r="A164" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B164" s="1">
+        <v>8</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>26</v>
@@ -14520,8 +14535,11 @@
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A165" s="13">
-        <v>44608</v>
+      <c r="A165" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B165" s="1">
+        <v>8</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>26</v>
@@ -14591,8 +14609,11 @@
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A166" s="13">
-        <v>44608</v>
+      <c r="A166" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B166" s="1">
+        <v>8</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>26</v>
@@ -14662,8 +14683,11 @@
       </c>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A167" s="13">
-        <v>44608</v>
+      <c r="A167" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B167" s="1">
+        <v>8</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>26</v>
@@ -14728,13 +14752,16 @@
       <c r="W167" s="1">
         <v>23139</v>
       </c>
-      <c r="X167" s="14">
+      <c r="X167" s="13">
         <v>5920</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A168" s="13">
-        <v>44608</v>
+      <c r="A168" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B168" s="1">
+        <v>8</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>26</v>
@@ -14804,8 +14831,11 @@
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A169" s="13">
-        <v>44608</v>
+      <c r="A169" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B169" s="1">
+        <v>8</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>26</v>
@@ -14875,8 +14905,11 @@
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A170" s="13">
-        <v>44608</v>
+      <c r="A170" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B170" s="1">
+        <v>8</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>26</v>
@@ -14946,8 +14979,11 @@
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A171" s="13">
-        <v>44608</v>
+      <c r="A171" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B171" s="1">
+        <v>8</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>26</v>
@@ -15017,8 +15053,11 @@
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A172" s="13">
-        <v>44608</v>
+      <c r="A172" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B172" s="1">
+        <v>8</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>26</v>
@@ -15088,8 +15127,11 @@
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A173" s="13">
-        <v>44608</v>
+      <c r="A173" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B173" s="1">
+        <v>8</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>26</v>
@@ -15159,8 +15201,11 @@
       </c>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A174" s="13">
-        <v>44608</v>
+      <c r="A174" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B174" s="1">
+        <v>8</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>26</v>
@@ -15230,8 +15275,11 @@
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A175" s="13">
-        <v>44608</v>
+      <c r="A175" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B175" s="1">
+        <v>8</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>26</v>
@@ -15301,8 +15349,11 @@
       </c>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A176" s="13">
-        <v>44608</v>
+      <c r="A176" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B176" s="1">
+        <v>8</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>26</v>
@@ -15372,8 +15423,11 @@
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A177" s="13">
-        <v>44608</v>
+      <c r="A177" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B177" s="1">
+        <v>8</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>26</v>
@@ -15443,8 +15497,11 @@
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A178" s="15">
-        <v>44609</v>
+      <c r="A178" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B178" s="1">
+        <v>9</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>26</v>
@@ -15514,8 +15571,11 @@
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A179" s="15">
-        <v>44609</v>
+      <c r="A179" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B179" s="1">
+        <v>9</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>26</v>
@@ -15585,8 +15645,11 @@
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A180" s="15">
-        <v>44609</v>
+      <c r="A180" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B180" s="1">
+        <v>9</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>26</v>
@@ -15656,8 +15719,11 @@
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A181" s="15">
-        <v>44609</v>
+      <c r="A181" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B181" s="1">
+        <v>9</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>26</v>
@@ -15727,8 +15793,11 @@
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A182" s="15">
-        <v>44609</v>
+      <c r="A182" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B182" s="1">
+        <v>9</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>26</v>
@@ -15798,8 +15867,11 @@
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A183" s="15">
-        <v>44609</v>
+      <c r="A183" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B183" s="1">
+        <v>9</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>26</v>
@@ -15869,8 +15941,11 @@
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A184" s="15">
-        <v>44609</v>
+      <c r="A184" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B184" s="1">
+        <v>9</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>26</v>
@@ -15940,8 +16015,11 @@
       </c>
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A185" s="15">
-        <v>44609</v>
+      <c r="A185" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B185" s="1">
+        <v>9</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>26</v>
@@ -16011,14 +16089,17 @@
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A186" s="15">
-        <v>44609</v>
+      <c r="A186" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B186" s="1">
+        <v>9</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="E186" s="1">
         <v>360</v>
@@ -16063,7 +16144,7 @@
         <v>30</v>
       </c>
       <c r="S186" s="2" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="T186" s="1">
         <v>2</v>
@@ -16072,24 +16153,27 @@
         <v>33.494</v>
       </c>
       <c r="V186" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="W186" s="1">
         <v>22749</v>
       </c>
       <c r="X186" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A187" s="15">
-        <v>44609</v>
+      <c r="A187" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B187" s="1">
+        <v>9</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E187" s="1">
         <v>360</v>
@@ -16134,7 +16218,7 @@
         <v>30</v>
       </c>
       <c r="S187" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="T187" s="1">
         <v>2</v>
@@ -16143,24 +16227,27 @@
         <v>33.494</v>
       </c>
       <c r="V187" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="W187" s="1">
         <v>18885</v>
       </c>
       <c r="X187" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A188" s="15">
-        <v>44609</v>
+      <c r="A188" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B188" s="1">
+        <v>9</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E188" s="1">
         <v>360</v>
@@ -16205,7 +16292,7 @@
         <v>30</v>
       </c>
       <c r="S188" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="T188" s="1">
         <v>2</v>
@@ -16214,24 +16301,27 @@
         <v>33.494</v>
       </c>
       <c r="V188" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W188" s="1">
         <v>22701</v>
       </c>
       <c r="X188" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A189" s="15">
-        <v>44609</v>
+      <c r="A189" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B189" s="1">
+        <v>9</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E189" s="1">
         <v>360</v>
@@ -16276,7 +16366,7 @@
         <v>30</v>
       </c>
       <c r="S189" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="T189" s="1">
         <v>2</v>
@@ -16285,7 +16375,7 @@
         <v>33.494</v>
       </c>
       <c r="V189" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="W189" s="1">
         <v>26527</v>
@@ -16295,14 +16385,17 @@
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A190" s="15">
-        <v>44609</v>
+      <c r="A190" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B190" s="1">
+        <v>9</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E190" s="1">
         <v>360</v>
@@ -16347,7 +16440,7 @@
         <v>30</v>
       </c>
       <c r="S190" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="T190" s="1">
         <v>2</v>
@@ -16356,7 +16449,7 @@
         <v>32</v>
       </c>
       <c r="V190" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="W190" s="1">
         <v>24500</v>
@@ -16366,14 +16459,17 @@
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A191" s="15">
-        <v>44609</v>
+      <c r="A191" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B191" s="1">
+        <v>9</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E191" s="1">
         <v>360</v>
@@ -16418,7 +16514,7 @@
         <v>30</v>
       </c>
       <c r="S191" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="T191" s="1">
         <v>2</v>
@@ -16427,24 +16523,27 @@
         <v>32</v>
       </c>
       <c r="V191" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="W191" s="1">
         <v>24531</v>
       </c>
       <c r="X191" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A192" s="15">
-        <v>44609</v>
+      <c r="A192" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B192" s="1">
+        <v>9</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E192" s="1">
         <v>360</v>
@@ -16489,7 +16588,7 @@
         <v>30</v>
       </c>
       <c r="S192" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="T192" s="1">
         <v>2</v>
@@ -16498,24 +16597,27 @@
         <v>32</v>
       </c>
       <c r="V192" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="W192" s="1">
         <v>24505</v>
       </c>
       <c r="X192" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A193" s="15">
-        <v>44609</v>
+      <c r="A193" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B193" s="1">
+        <v>9</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E193" s="1">
         <v>360</v>
@@ -16560,7 +16662,7 @@
         <v>30</v>
       </c>
       <c r="S193" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="T193" s="1">
         <v>2</v>
@@ -16569,24 +16671,27 @@
         <v>32</v>
       </c>
       <c r="V193" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="W193" s="1">
         <v>24502</v>
       </c>
       <c r="X193" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A194" s="15">
-        <v>44609</v>
+      <c r="A194" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B194" s="1">
+        <v>9</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E194" s="1">
         <v>360</v>
@@ -16631,7 +16736,7 @@
         <v>30</v>
       </c>
       <c r="S194" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="T194" s="1">
         <v>2</v>
@@ -16640,7 +16745,7 @@
         <v>32</v>
       </c>
       <c r="V194" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W194" s="1">
         <v>24514</v>
@@ -16650,14 +16755,17 @@
       </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A195" s="15">
-        <v>44609</v>
+      <c r="A195" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B195" s="1">
+        <v>9</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="E195" s="1">
         <v>360</v>
@@ -16702,7 +16810,7 @@
         <v>30</v>
       </c>
       <c r="S195" s="2" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="T195" s="1">
         <v>2</v>
@@ -16711,24 +16819,27 @@
         <v>33.494</v>
       </c>
       <c r="V195" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="W195" s="1">
         <v>22655</v>
       </c>
       <c r="X195" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A196" s="15">
-        <v>44609</v>
+      <c r="A196" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B196" s="1">
+        <v>9</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="E196" s="1">
         <v>360</v>
@@ -16773,7 +16884,7 @@
         <v>30</v>
       </c>
       <c r="S196" s="2" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="T196" s="1">
         <v>2</v>
@@ -16782,24 +16893,27 @@
         <v>33.494</v>
       </c>
       <c r="V196" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="W196" s="1">
         <v>22715</v>
       </c>
       <c r="X196" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A197" s="15">
-        <v>44609</v>
+      <c r="A197" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B197" s="1">
+        <v>9</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E197" s="1">
         <v>360</v>
@@ -16844,7 +16958,7 @@
         <v>30</v>
       </c>
       <c r="S197" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="T197" s="1">
         <v>2</v>
@@ -16853,24 +16967,27 @@
         <v>32</v>
       </c>
       <c r="V197" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="W197" s="1">
         <v>24475</v>
       </c>
       <c r="X197" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A198" s="15">
-        <v>44609</v>
+      <c r="A198" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B198" s="1">
+        <v>9</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E198" s="1">
         <v>360</v>
@@ -16915,7 +17032,7 @@
         <v>30</v>
       </c>
       <c r="S198" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="T198" s="1">
         <v>2</v>
@@ -16924,24 +17041,27 @@
         <v>32</v>
       </c>
       <c r="V198" s="3" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="W198" s="1">
         <v>24454</v>
       </c>
       <c r="X198" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A199" s="15">
-        <v>44609</v>
+      <c r="A199" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B199" s="1">
+        <v>9</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E199" s="1">
         <v>360</v>
@@ -16986,7 +17106,7 @@
         <v>30</v>
       </c>
       <c r="S199" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="T199" s="1">
         <v>2</v>
@@ -16995,24 +17115,27 @@
         <v>32</v>
       </c>
       <c r="V199" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="W199" s="1">
         <v>24475</v>
       </c>
       <c r="X199" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A200" s="15">
-        <v>44609</v>
+      <c r="A200" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B200" s="1">
+        <v>9</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E200" s="1">
         <v>360</v>
@@ -17057,7 +17180,7 @@
         <v>30</v>
       </c>
       <c r="S200" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="T200" s="1">
         <v>2</v>
@@ -17066,24 +17189,27 @@
         <v>32</v>
       </c>
       <c r="V200" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="W200" s="1">
         <v>24428</v>
       </c>
       <c r="X200" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A201" s="15">
-        <v>44609</v>
+      <c r="A201" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B201" s="1">
+        <v>9</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E201" s="1">
         <v>360</v>
@@ -17128,7 +17254,7 @@
         <v>30</v>
       </c>
       <c r="S201" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="T201" s="1">
         <v>2</v>
@@ -17137,24 +17263,27 @@
         <v>32</v>
       </c>
       <c r="V201" s="3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="W201" s="1">
         <v>24397</v>
       </c>
       <c r="X201" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A202" s="16" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A202" s="15">
-        <v>44609</v>
+      <c r="B202" s="1">
+        <v>9</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E202" s="1">
         <v>360</v>
@@ -17199,7 +17328,7 @@
         <v>30</v>
       </c>
       <c r="S202" s="2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="T202" s="1">
         <v>2</v>
@@ -17208,24 +17337,27 @@
         <v>33.494</v>
       </c>
       <c r="V202" s="3" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="W202" s="1">
         <v>22665</v>
       </c>
       <c r="X202" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A203" s="15">
-        <v>44609</v>
+      <c r="A203" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B203" s="1">
+        <v>9</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E203" s="1">
         <v>360</v>
@@ -17270,7 +17402,7 @@
         <v>30</v>
       </c>
       <c r="S203" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="T203" s="1">
         <v>2</v>
@@ -17279,13 +17411,13 @@
         <v>33.494</v>
       </c>
       <c r="V203" s="3" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="W203" s="1">
         <v>22643</v>
       </c>
       <c r="X203" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -17325,7 +17457,7 @@
       <c r="Y4" s="2"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -17334,7 +17466,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -17343,7 +17475,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -17352,7 +17484,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -17361,7 +17493,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="G19" s="15"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -17382,7 +17514,7 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="G20" s="15"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -17403,7 +17535,7 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="G21" s="15"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -17424,7 +17556,7 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="G22" s="15"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -17445,7 +17577,7 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="G23" s="15"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -17471,7 +17603,7 @@
       <c r="AD23" s="1"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -17492,7 +17624,7 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -17513,7 +17645,7 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -17534,7 +17666,7 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -17555,7 +17687,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -17576,7 +17708,7 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -17597,7 +17729,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -17618,7 +17750,7 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -17639,7 +17771,7 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -17660,7 +17792,7 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -17681,7 +17813,7 @@
       <c r="U35" s="1"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -17702,7 +17834,7 @@
       <c r="U36" s="1"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -17723,7 +17855,7 @@
       <c r="U37" s="1"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -17744,7 +17876,7 @@
       <c r="U38" s="1"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -17765,7 +17897,7 @@
       <c r="U39" s="1"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -17786,7 +17918,7 @@
       <c r="U40" s="1"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -17809,7 +17941,7 @@
       <c r="U41" s="1"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -17835,7 +17967,7 @@
       <c r="X42" s="1"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -17861,7 +17993,7 @@
       <c r="X43" s="1"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -17887,7 +18019,7 @@
       <c r="X44" s="1"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
